--- a/inst/shiny-examples/BCGcalc/external/RMD/files/BDI_ReqFields_20230817.xlsx
+++ b/inst/shiny-examples/BCGcalc/external/RMD/files/BDI_ReqFields_20230817.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\shiny-examples\BCGcalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A0347A-1BA2-47CE-8470-BEDBC5CD4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E825E4B5-D4DD-4726-A4DB-D6E6AFB64848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{51DF1112-20D0-4BE9-8911-7350986D089E}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{51DF1112-20D0-4BE9-8911-7350986D089E}"/>
   </bookViews>
   <sheets>
     <sheet name="RequiredFields" sheetId="1" r:id="rId1"/>
@@ -361,9 +361,6 @@
     <t>stenoc, cold, cool, cowa, warm, stenow, eurythermal</t>
   </si>
   <si>
-    <t>Thermal preference assignment based on Stamp et al. (in progress): stenoc=cold stenotherm; cold, cool, cowa = cool/warm, warm, stenow = warm stenotherm, eurythermal.</t>
-  </si>
-  <si>
     <t>logical</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>OPTIONAL.  (Will be added if not present).  Directs the R code to the correct submodel to use (it looks in the INDEX_CLASS column in the Rules table in the BCGcalc extdata folder)</t>
+  </si>
+  <si>
+    <t>OPTIONAL.  Thermal preference assignment based on Stamp et al. (in progress): stenoc=cold stenotherm; cold, cool, cowa = cool/warm, warm, stenow = warm stenotherm, eurythermal.</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,9 +483,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +502,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,12 +839,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -853,66 +865,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -920,41 +932,42 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -962,10 +975,10 @@
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
@@ -974,10 +987,10 @@
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
@@ -986,10 +999,10 @@
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
@@ -998,10 +1011,10 @@
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
@@ -1010,10 +1023,10 @@
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1022,10 +1035,10 @@
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
@@ -1034,10 +1047,10 @@
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1046,10 +1059,10 @@
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1057,59 +1070,59 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1149,61 +1162,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>93</v>
       </c>
     </row>
